--- a/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
+++ b/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>N°</t>
   </si>
@@ -161,6 +161,60 @@
   </si>
   <si>
     <t>Para tener un control de los usuarios.</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>El sistema deberá estar disponible las 24 horas de los 360 días del año.</t>
+  </si>
+  <si>
+    <t>No funcional</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Facilidad de uso</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener una apariencia y diseño amigables e intuitivos para el usuario.</t>
+  </si>
+  <si>
+    <t>Debido a que se quiere el usuario rapidamente se familiarice con el sistema.</t>
+  </si>
+  <si>
+    <t>RNF-07</t>
+  </si>
+  <si>
+    <t>Debido a que servira de consulta sobretodo a la comunidad de la FISI sobre los temas de tesis que ya estan desarrolladas.</t>
+  </si>
+  <si>
+    <t>RNF-08</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener un tiempo de respuesta máximo de 10 segundos para las consultas al sistema.</t>
+  </si>
+  <si>
+    <t>Para que el usuario realice las busquedas necesarias en menor lapso de tiempo.</t>
+  </si>
+  <si>
+    <t>RNF-09</t>
+  </si>
+  <si>
+    <t>RNF-10</t>
+  </si>
+  <si>
+    <t>El sistema deberá proteger la información de usuarios,  de accesos no autorizados y divulgaciones.</t>
+  </si>
+  <si>
+    <t>Debido a la confidencialidad de la informacion ingresada por los usuarios.</t>
   </si>
 </sst>
 </file>
@@ -340,13 +394,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -383,76 +434,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,7 +803,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,291 +830,397 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="9" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="13" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="12" t="s">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="10" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
+        <v>6</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="40">
+        <v>7</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="40">
+        <v>8</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>9</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
@@ -1056,12 +1237,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
+++ b/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -410,9 +410,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,6 +437,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -449,15 +494,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,9 +507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,47 +521,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,14 +834,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="42" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
@@ -830,16 +851,16 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -871,25 +892,25 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -897,125 +918,125 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="8" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="11" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="9" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1023,205 +1044,198 @@
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="35">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="6" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="6" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="8" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
+      <c r="A18" s="14">
         <v>7</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
+      <c r="A19" s="14">
         <v>8</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>9</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="A3:H3"/>
@@ -1237,6 +1251,13 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
+++ b/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
@@ -458,6 +458,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -467,78 +542,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -546,9 +549,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,14 +834,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
@@ -851,16 +851,16 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -898,7 +898,7 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -924,7 +924,7 @@
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -941,25 +941,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="32">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -967,49 +967,49 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="41"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="32">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -1017,25 +1017,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="8" t="s">
         <v>42</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1067,25 +1067,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1093,37 +1093,37 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="22" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1162,7 +1162,7 @@
       <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1186,7 +1186,7 @@
       <c r="C20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1210,7 +1210,7 @@
       <c r="C21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1236,6 +1236,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="A3:H3"/>
@@ -1252,12 +1258,6 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
+++ b/Empresa CaX/PROY_SisCoTe/Documentacion/Negocio/SisCoTe_LR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>N°</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Administrar cuentas</t>
   </si>
   <si>
-    <t>El sistema deberá permitir operaciones CRUD utilizando un superusuario</t>
-  </si>
-  <si>
-    <t>Se requiere que la plataforma cuente con la opcion de gestion de cuenta.</t>
-  </si>
-  <si>
     <t>Baja</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>Administrar documentos de tesis</t>
   </si>
   <si>
-    <t>El sistema deberá permitir registrar, visualizar y eliminar un documento de tesis: Nombre del fichero, tipo del fichero, codigo del fichero.</t>
-  </si>
-  <si>
-    <t>Debido a que se necesitara tener un control de los documentos de tesis que se alojaran en el sistema</t>
-  </si>
-  <si>
     <t>Visualizar documento de tesis</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t xml:space="preserve">Buscar tesis </t>
   </si>
   <si>
-    <t>El sistema debe permitir la edicion, visualizacion y eliminacion de la informacion de los documentos de tesis: Titulo de la tesis, autor, fecha de publicacion,tema, especialidad, codigo de la tesis, estado de la tesis, docente asesor, grado academico,</t>
-  </si>
-  <si>
     <t>El sistema debe permitir la busqueda de una determinada tesis o conjunto de tesis segun los siguientes campos: Titulo, descripcion, autor, tema, fecha.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t xml:space="preserve">Buscar tesis por categoria </t>
   </si>
   <si>
-    <t>Para tener un control de los usuarios.</t>
-  </si>
-  <si>
     <t>Disponibilidad</t>
   </si>
   <si>
@@ -215,16 +197,73 @@
   </si>
   <si>
     <t>Debido a la confidencialidad de la informacion ingresada por los usuarios.</t>
+  </si>
+  <si>
+    <t>Se requiere del registro de tesis en el sistema para su posterior consulta.</t>
+  </si>
+  <si>
+    <t>Para tener un control en el acceso al sistema.</t>
+  </si>
+  <si>
+    <t>El sistema debera permitir a sus usuarios eliminar los documentos de tesis que hayan registrado.</t>
+  </si>
+  <si>
+    <t>Para que el usuario tengan control sobre los documentos de tesis que haya cargado al sistema.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir registrar y cargar el documento de tesis con los siguientes datos: Título de la tesis, autor, fecha de publicacion, tema, especialidad, codigo de la tesis, estado de la tesis, docente asesor, grado académico.</t>
+  </si>
+  <si>
+    <t>El sistema permitira visualizar el contenido del documento de tesis adjunto.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la edicion de la informacion de los documentos de tesis: Título de la tesis, autor, fecha de publicacion,tema, especialidad, codigo de la tesis, estado de la tesis, docente asesor, grado académico.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir mostrar la informacion de los documentos de tesis: Título de la tesis, autor, fecha de publicacion,tema, especialidad, codigo de la tesis, estado de la tesis, docente asesor, grado académico.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir editar la informacion de los documentos de tesis: Título de la tesis, autor, fecha de publicacion,tema, especialidad, codigo de la tesis, estado de la tesis, docente asesor, grado académico.</t>
+  </si>
+  <si>
+    <t>Se necesitara mostrar el contenido del documento adjunto para servir de guía a la comunidad académica.</t>
+  </si>
+  <si>
+    <t>De esta manera el usuario podra tener la opcion de modificar el registro de la información de su documento de tesis.</t>
+  </si>
+  <si>
+    <t>De esta manera el usuario podra tener la opcion de eliminar  la información del documento de tesis que haya registrado.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir visualizar todas las cuentas registradas en el sistema utilizando un superusuario.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitirá al superusuario dar de baja la cuenta de ciertos usuarios.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitirá al superusuario activar la cuenta de ciertos usuarios.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitirá al superusuario restablecer las contraseñas de los usuarios a pedido.</t>
+  </si>
+  <si>
+    <t>Para el control de los usuarios del sistema se requiere de una plataforma que nos permita visualizar las cuentas y sus estados.</t>
+  </si>
+  <si>
+    <t>Para el control del sistema se requiere de una plataforma que nos permita gestionar los estados de las cuentas.</t>
+  </si>
+  <si>
+    <t>Para el control del sistema se requiere de una plataforma que nos permita restablecer los contraseñas de los usuarios.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -262,6 +301,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -289,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -389,12 +434,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -428,9 +484,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,9 +499,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,34 +517,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,52 +527,67 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,45 +862,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="48" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,18 +925,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="57" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>37</v>
+      <c r="D5" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -914,21 +951,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="25.5">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>48</v>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>7</v>
@@ -940,121 +977,161 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+    <row r="7" spans="1:8" ht="57" customHeight="1">
+      <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" customHeight="1">
+      <c r="A8" s="41">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25">
+      <c r="A9" s="42">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="39" t="s">
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A10" s="40">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="34" t="s">
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A11" s="41">
+        <v>6</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A12" s="42">
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="38.25">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
-        <v>4</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="46" t="s">
+      <c r="B13" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
+      <c r="D13" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>7</v>
@@ -1063,201 +1140,216 @@
         <v>8</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1">
+      <c r="A14" s="43">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="38.25">
+      <c r="A15" s="44">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A16" s="44">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A17" s="45">
+        <v>12</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="51">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5">
+      <c r="A19" s="13">
+        <v>14</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5">
+      <c r="A20" s="11">
+        <v>15</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
-        <v>6</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5">
+      <c r="A21" s="11">
+        <v>16</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>8</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>9</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="G21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="7">
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H14:H17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
